--- a/PCB/ESP32_Top_Rev2_BOM.xlsx
+++ b/PCB/ESP32_Top_Rev2_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrankin\Dropbox\Arduino_PCB\ESP32_uCNC\ESP32_Top\Project Outputs for ESP32_Top_Rev2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74451634-F1B6-4FD5-A8ED-28121AAA206F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF545105-FC95-487B-9EC2-5AE5E29CBB2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24255" yWindow="570" windowWidth="22620" windowHeight="14835" xr2:uid="{EEFB0AF2-31B3-4DBB-884F-CC431ED80217}"/>
+    <workbookView xWindow="-24255" yWindow="570" windowWidth="22620" windowHeight="14835" xr2:uid="{AD8FAD09-96B1-453D-9768-C73CB0A83BF1}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32_Top_Rev2_BOM" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="196">
   <si>
     <t>Designator</t>
   </si>
@@ -54,6 +54,9 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Part_Number</t>
+  </si>
+  <si>
     <t>ANT1</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
     <t>Proant AB</t>
   </si>
   <si>
+    <t>PRO-OB-440</t>
+  </si>
+  <si>
     <t>C1, C2, C4, C10, C22</t>
   </si>
   <si>
@@ -81,6 +87,9 @@
     <t>0.1uF</t>
   </si>
   <si>
+    <t>C60474</t>
+  </si>
+  <si>
     <t>C3</t>
   </si>
   <si>
@@ -93,6 +102,9 @@
     <t>1.5pF</t>
   </si>
   <si>
+    <t>C147344</t>
+  </si>
+  <si>
     <t>C5, C6, C12</t>
   </si>
   <si>
@@ -102,6 +114,9 @@
     <t>1uF</t>
   </si>
   <si>
+    <t>C29266</t>
+  </si>
+  <si>
     <t>C7, C8, C11, C16, C17</t>
   </si>
   <si>
@@ -114,6 +129,9 @@
     <t>10uF</t>
   </si>
   <si>
+    <t>C162317</t>
+  </si>
+  <si>
     <t>C9, C15</t>
   </si>
   <si>
@@ -126,6 +144,9 @@
     <t>150uF</t>
   </si>
   <si>
+    <t>C242018</t>
+  </si>
+  <si>
     <t>C13</t>
   </si>
   <si>
@@ -135,6 +156,9 @@
     <t>4.7uF</t>
   </si>
   <si>
+    <t>C318563</t>
+  </si>
+  <si>
     <t>C14</t>
   </si>
   <si>
@@ -144,6 +168,9 @@
     <t>2.2uF</t>
   </si>
   <si>
+    <t>C170151</t>
+  </si>
+  <si>
     <t>C20</t>
   </si>
   <si>
@@ -153,6 +180,9 @@
     <t>22nF</t>
   </si>
   <si>
+    <t>C318579</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -165,6 +195,9 @@
     <t>Green</t>
   </si>
   <si>
+    <t>C205443</t>
+  </si>
+  <si>
     <t>F1</t>
   </si>
   <si>
@@ -177,6 +210,9 @@
     <t>1A Fuse</t>
   </si>
   <si>
+    <t>C261942</t>
+  </si>
+  <si>
     <t>H1</t>
   </si>
   <si>
@@ -189,6 +225,9 @@
     <t>Male 4X2</t>
   </si>
   <si>
+    <t>C358706</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
@@ -201,6 +240,9 @@
     <t>MicroSD</t>
   </si>
   <si>
+    <t>0473092851</t>
+  </si>
+  <si>
     <t>J2</t>
   </si>
   <si>
@@ -213,6 +255,9 @@
     <t>Micro USB</t>
   </si>
   <si>
+    <t>C319170</t>
+  </si>
+  <si>
     <t>L1</t>
   </si>
   <si>
@@ -225,6 +270,9 @@
     <t>2.2uH</t>
   </si>
   <si>
+    <t>C90329</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -237,6 +285,9 @@
     <t>Linear Motor</t>
   </si>
   <si>
+    <t>shorturl.at/cQ269</t>
+  </si>
+  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -249,6 +300,9 @@
     <t>BC847S</t>
   </si>
   <si>
+    <t>C148112</t>
+  </si>
+  <si>
     <t>R1, R2, R3, R4, R5, R7, R13, R15, R17, R18, R19, R23, R24, R25, R28, R31, R32, R34, R37</t>
   </si>
   <si>
@@ -261,6 +315,9 @@
     <t>10K</t>
   </si>
   <si>
+    <t>C25744</t>
+  </si>
+  <si>
     <t>R6</t>
   </si>
   <si>
@@ -270,6 +327,9 @@
     <t>22.1K</t>
   </si>
   <si>
+    <t>C43473</t>
+  </si>
+  <si>
     <t>R8, R9</t>
   </si>
   <si>
@@ -279,6 +339,9 @@
     <t>2K</t>
   </si>
   <si>
+    <t>C4109</t>
+  </si>
+  <si>
     <t>R10</t>
   </si>
   <si>
@@ -288,6 +351,9 @@
     <t>390K</t>
   </si>
   <si>
+    <t>C25782</t>
+  </si>
+  <si>
     <t>R11, R21, R38</t>
   </si>
   <si>
@@ -297,6 +363,9 @@
     <t>0R</t>
   </si>
   <si>
+    <t>C17168</t>
+  </si>
+  <si>
     <t>R12</t>
   </si>
   <si>
@@ -306,6 +375,9 @@
     <t>47K</t>
   </si>
   <si>
+    <t>C25792</t>
+  </si>
+  <si>
     <t>R14</t>
   </si>
   <si>
@@ -315,6 +387,9 @@
     <t>100K</t>
   </si>
   <si>
+    <t>C25741</t>
+  </si>
+  <si>
     <t>R16</t>
   </si>
   <si>
@@ -324,6 +399,9 @@
     <t>49.9K</t>
   </si>
   <si>
+    <t>C25897</t>
+  </si>
+  <si>
     <t>R20</t>
   </si>
   <si>
@@ -333,6 +411,9 @@
     <t>90.9K</t>
   </si>
   <si>
+    <t>C26989</t>
+  </si>
+  <si>
     <t>R22</t>
   </si>
   <si>
@@ -342,6 +423,9 @@
     <t>4.99K</t>
   </si>
   <si>
+    <t>C25903</t>
+  </si>
+  <si>
     <t>R27</t>
   </si>
   <si>
@@ -351,6 +435,9 @@
     <t>1K</t>
   </si>
   <si>
+    <t>C11702</t>
+  </si>
+  <si>
     <t>R29, R30</t>
   </si>
   <si>
@@ -360,6 +447,9 @@
     <t>0.2R</t>
   </si>
   <si>
+    <t>C270629</t>
+  </si>
+  <si>
     <t>R33</t>
   </si>
   <si>
@@ -369,6 +459,9 @@
     <t>470R</t>
   </si>
   <si>
+    <t>C25117</t>
+  </si>
+  <si>
     <t>R35, R36</t>
   </si>
   <si>
@@ -378,6 +471,9 @@
     <t>22R</t>
   </si>
   <si>
+    <t>C25092</t>
+  </si>
+  <si>
     <t>S1</t>
   </si>
   <si>
@@ -387,6 +483,9 @@
     <t>Toggle Switch</t>
   </si>
   <si>
+    <t>C381099</t>
+  </si>
+  <si>
     <t>S2, S4</t>
   </si>
   <si>
@@ -399,6 +498,9 @@
     <t>Pushbutton</t>
   </si>
   <si>
+    <t>C455281</t>
+  </si>
+  <si>
     <t>S3</t>
   </si>
   <si>
@@ -408,7 +510,10 @@
     <t>Alps</t>
   </si>
   <si>
-    <t>PushButton</t>
+    <t>Limit Switch</t>
+  </si>
+  <si>
+    <t>C231760</t>
   </si>
   <si>
     <t>U1</t>
@@ -423,6 +528,9 @@
     <t>CP2104N</t>
   </si>
   <si>
+    <t>CP2104-F03-GMR</t>
+  </si>
+  <si>
     <t>U2</t>
   </si>
   <si>
@@ -447,6 +555,9 @@
     <t>HT7833</t>
   </si>
   <si>
+    <t>C164106</t>
+  </si>
+  <si>
     <t>U4</t>
   </si>
   <si>
@@ -459,6 +570,9 @@
     <t>Step Down</t>
   </si>
   <si>
+    <t>RT8096CHGJ5</t>
+  </si>
+  <si>
     <t>U5</t>
   </si>
   <si>
@@ -468,6 +582,9 @@
     <t>ST Micro</t>
   </si>
   <si>
+    <t>STSPIN220</t>
+  </si>
+  <si>
     <t>U6</t>
   </si>
   <si>
@@ -492,6 +609,9 @@
     <t>ESD</t>
   </si>
   <si>
+    <t>PESD5V0L5UY</t>
+  </si>
+  <si>
     <t>X1</t>
   </si>
   <si>
@@ -499,6 +619,9 @@
   </si>
   <si>
     <t>96x16 OLED_GLASS</t>
+  </si>
+  <si>
+    <t>ER-OLED0.69-1W</t>
   </si>
 </sst>
 </file>
@@ -555,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,9 +689,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,27 +1003,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF73728-F7BF-4CDB-B690-F3D866DC6DA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B7556E-EF99-4635-90FD-A28D6F9D00C9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -922,838 +1039,967 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="5">
+        <v>69</v>
+      </c>
+      <c r="B15" s="4">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="5">
+        <v>74</v>
+      </c>
+      <c r="B16" s="4">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="5">
+        <v>79</v>
+      </c>
+      <c r="B17" s="4">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="5">
+        <v>84</v>
+      </c>
+      <c r="B18" s="4">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="4">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="5">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="F33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="4">
         <v>2</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="5">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="5">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="5">
-        <v>2</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="5">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="5">
-        <v>2</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="5">
+        <v>155</v>
+      </c>
+      <c r="B35" s="4">
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="5">
+        <v>160</v>
+      </c>
+      <c r="B36" s="4">
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="5">
+        <v>165</v>
+      </c>
+      <c r="B37" s="4">
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="5">
+        <v>169</v>
+      </c>
+      <c r="B38" s="4">
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="5">
+        <v>174</v>
+      </c>
+      <c r="B39" s="4">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" s="5">
+        <v>179</v>
+      </c>
+      <c r="B40" s="4">
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G40" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="5">
+        <v>183</v>
+      </c>
+      <c r="B41" s="4">
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B42" s="5">
+        <v>187</v>
+      </c>
+      <c r="B42" s="4">
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" s="5">
+        <v>192</v>
+      </c>
+      <c r="B43" s="4">
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
+      <c r="G43" s="3" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
